--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Máy tính\tranning-java-core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92084231-0F05-40B6-A4E0-2D5C6FE5894B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D277330E-5852-4DF4-BB3B-9ED8ABFE57CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="3084" windowWidth="17280" windowHeight="8964" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="3084" windowWidth="17280" windowHeight="8964" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Encapsulation" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,19 @@
     <sheet name="Polymorphism" sheetId="6" r:id="rId3"/>
     <sheet name="Upcasting and Downcasting" sheetId="7" r:id="rId4"/>
     <sheet name="Abstract &amp; Interface" sheetId="5" r:id="rId5"/>
-    <sheet name="Q&amp;A" sheetId="3" r:id="rId6"/>
+    <sheet name=" Naming Convention" sheetId="8" r:id="rId6"/>
+    <sheet name="Primitive" sheetId="9" r:id="rId7"/>
+    <sheet name="Constructor" sheetId="10" r:id="rId8"/>
+    <sheet name="Final &amp; Static" sheetId="11" r:id="rId9"/>
+    <sheet name="ArrayList &amp; HasSet &amp; HasMap" sheetId="12" r:id="rId10"/>
+    <sheet name="Q&amp;A" sheetId="3" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="101">
   <si>
     <t xml:space="preserve">1. Khái niệm: Tính đóng gói là kỹ thuật ấn giấu thông tin không liên quan và hiện thị ra thông tin liên quan. </t>
   </si>
@@ -54,9 +59,6 @@
   </si>
   <si>
     <t>4. Khi ta muốn truy cập thuộc tính hoặc phương thức của lớp cha thì ta dùng từ khóa supper</t>
-  </si>
-  <si>
-    <t>1. Tại sao không dùng constructor để gán giá trị ?</t>
   </si>
   <si>
     <t xml:space="preserve">Polymorphism </t>
@@ -315,17 +317,142 @@
       <t> chúng trong class được implements.</t>
     </r>
   </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Class vs Interface</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Sử dụng danh từ và cách nhau bời dấu chấm</t>
+  </si>
+  <si>
+    <t>Sử dụng nên sử dụng các danh từ và cụm dụng từ, chữ cái đầu tiên viết hoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sự dụng động từ hoặc cụm động từ viết thường chữ đầu tiên và viết hoa các chữ cái đầu tiên tiếp theo </t>
+  </si>
+  <si>
+    <t>Sử dụng danh từ hoặc cụm danh từ viết thường chữ cái đầu tiên và viết hoa các chữ cái đầu tiên</t>
+  </si>
+  <si>
+    <t>Tất cả lên viết hoa và cách nhau bằng dấu gạch dưới</t>
+  </si>
+  <si>
+    <t>Primitive</t>
+  </si>
+  <si>
+    <t>Wapper class</t>
+  </si>
+  <si>
+    <t>Cần sử dụng các biến có giá trị Null.</t>
+  </si>
+  <si>
+    <t>Với wrapper chúng ta có thể nhận được NullPointerException khi một cái gì đó đang được thiết lập không chính xác. Đôi khi nó giúp chúng ta dễ dàng phát hiện lỗi hơn</t>
+  </si>
+  <si>
+    <t>Với kiểu dữ liệu nguyên thủy, các giá trị có thể được khởi tạo với giá trị mặc định 0, false, … điều này có thể không chính xác hoặc gây nhầm lẫn cho lập trình viên.</t>
+  </si>
+  <si>
+    <t>Khi không gán giá trị thì mặc định giá trị sẽ là 0</t>
+  </si>
+  <si>
+    <t>Hiệu năng tốt hơn</t>
+  </si>
+  <si>
+    <t>Constructor</t>
+  </si>
+  <si>
+    <t>Tên constructor phải giống tên lớp chứa nó.
+Constructor không có kiểu trả về</t>
+  </si>
+  <si>
+    <t>Là  phương thức được sử dụng để khởi tạo các đối tượng.
+Có 2 kiểu constructor là mặc định và tham số
+Nếu không có constructor trong một lớp, trình biên dịch sẽ tự động tạo một constructor mặc định tron lớp đó</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Static </t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Biến final: bạn không thể thay đổi giá trị của biến final (nó sẽ là hằng số)</t>
+  </si>
+  <si>
+    <t>Lớp final: bạn không thể kế thừa lớp final.</t>
+  </si>
+  <si>
+    <t>Biến static final trống: Một biến final mà không được khởi tạo tại thời điểm khai báo được gọi là biến final trống.</t>
+  </si>
+  <si>
+    <t>Phương thức final có được thừa kế, nhưng không thể ghi đè được</t>
+  </si>
+  <si>
+    <t>Biến static có thể được sử dụng để tham chiếu thuộc tính chung của tất cả đối tượng (mà không là duy nhất cho mỗi đối tượng), ví dụ như tên công ty của nhân viên, tên trường học của các sinh viên, ..</t>
+  </si>
+  <si>
+    <t>Khối static luôn được thực thi trước khi phương thức main tại lúc tải lớp</t>
+  </si>
+  <si>
+    <t>ArrayList</t>
+  </si>
+  <si>
+    <t>Là một lớp kế thừa lớp AbstractList và triển khai của List Interface trong Collections Framework nên nó sẽ có một vài đặc điểm và phương thức tương đồng với List. ArrayList được sử dụng như một mảng động để lưu trữ các phần tử.</t>
+  </si>
+  <si>
+    <t>Đặc điểm</t>
+  </si>
+  <si>
+    <t>Lớp ArrayList trong java có thể chứa các phần tử trùng lặp.</t>
+  </si>
+  <si>
+    <t>Lớp ArrayList duy trì thứ tự của phần tử được thêm vào.</t>
+  </si>
+  <si>
+    <t>Lớp ArrayList là không đồng bộ (non-synchronized).</t>
+  </si>
+  <si>
+    <t>Lớp ArrayList cho phép truy cập ngẫu nhiên vì nó lưu dữ liệu theo chỉ mục.</t>
+  </si>
+  <si>
+    <t>Lớp ArrayList trong java, thao tác chậm vì cần nhiều sự dịch chuyển nếu bất kỳ phần tử nào bị xoá khỏi danh sách.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -393,6 +520,12 @@
       <color rgb="FF252525"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -408,7 +541,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -572,129 +705,230 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -931,6 +1165,133 @@
         <a:xfrm>
           <a:off x="7208520" y="1135380"/>
           <a:ext cx="4061460" cy="2270760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4945380</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3147060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{950F6EF8-FCC1-4221-AB8D-F61E1DA211FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="289560"/>
+          <a:ext cx="4945380" cy="3040380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4457700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3124200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C614ABFB-BD5A-4F19-A151-5BB705234E14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5036820" y="388620"/>
+          <a:ext cx="4404360" cy="3002280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1268,6 +1629,80 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20624A7D-1469-4982-BA44-0335395FB1E1}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="59.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="57.6">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="51" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="51" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="51" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="26.4">
+      <c r="B7" s="51" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A4"/>
@@ -1324,91 +1759,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21">
-      <c r="A1" s="26"/>
-      <c r="B1" s="27" t="s">
+      <c r="A1" s="18"/>
+      <c r="B1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="20" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="126">
       <c r="A2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="8" customFormat="1" ht="210.6" customHeight="1">
       <c r="A3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="15"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
     </row>
     <row r="4" spans="1:4" ht="63">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="22" t="s">
+      <c r="D4" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="42">
+      <c r="A5" s="44"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D5" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="42">
-      <c r="A5" s="21"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="16" t="s">
+    <row r="6" spans="1:4" ht="21">
+      <c r="A6" s="44"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="21">
-      <c r="A6" s="21"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="16" t="s">
+    <row r="7" spans="1:4" ht="42">
+      <c r="A7" s="44"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="84">
+      <c r="A8" s="45"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="42">
-      <c r="A7" s="21"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="14" t="s">
+      <c r="D8" s="10" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="84">
-      <c r="A8" s="19"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1463,7 +1898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEAEEA8C-6DFA-44B4-910F-FC909E6A4C61}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1476,79 +1911,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21">
-      <c r="A1" s="31"/>
-      <c r="B1" s="31" t="s">
+      <c r="A1" s="23"/>
+      <c r="B1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="31" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="63">
+      <c r="A2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="63">
-      <c r="A2" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="31" t="s">
+      <c r="C2" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="31" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="199.8" customHeight="1">
+      <c r="A3" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="47" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="199.8" customHeight="1">
-      <c r="A3" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="32" t="s">
+      <c r="C3" s="47"/>
+    </row>
+    <row r="4" spans="1:3" ht="21">
+      <c r="A4" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="32"/>
-    </row>
-    <row r="4" spans="1:3" ht="21">
-      <c r="A4" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="31" t="s">
+      <c r="C4" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="31" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="24.6">
+      <c r="A5" s="46"/>
+      <c r="B5" s="23" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="24.6">
-      <c r="A5" s="36"/>
-      <c r="B5" s="31" t="s">
+      <c r="C5" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="33" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="42">
+      <c r="A6" s="46"/>
+      <c r="B6" s="23" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="42">
-      <c r="A6" s="36"/>
-      <c r="B6" s="31" t="s">
+      <c r="C6" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="31" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="42.6" thickBot="1">
+      <c r="A7" s="46"/>
+      <c r="B7" s="25" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="42.6" thickBot="1">
-      <c r="A7" s="36"/>
-      <c r="B7" s="34" t="s">
+      <c r="C7" s="23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="42.6" thickBot="1">
+      <c r="A8" s="46"/>
+      <c r="B8" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C8" s="23" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="42.6" thickBot="1">
-      <c r="A8" s="36"/>
-      <c r="B8" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1565,8 +2000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1579,87 +2014,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="37" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="21">
+      <c r="A2" s="27" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="21">
-      <c r="A2" s="37" t="s">
+      <c r="B2" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="D2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="84">
+      <c r="A3" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="29" t="s">
+      <c r="B3" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="84">
-      <c r="A3" s="38" t="s">
+      <c r="E3" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="21">
+      <c r="A4" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B4" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="21">
-      <c r="A4" s="37" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="42">
+      <c r="A5" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B5" s="27" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="42">
-      <c r="A5" s="37" t="s">
+    <row r="6" spans="1:5" ht="42">
+      <c r="A6" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B6" s="27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="42">
-      <c r="A6" s="37" t="s">
+    <row r="7" spans="1:5" ht="21">
+      <c r="A7" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B7" s="27" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="21">
-      <c r="A7" s="37" t="s">
+    <row r="8" spans="1:5" ht="42">
+      <c r="A8" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B8" s="27" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="42">
-      <c r="A8" s="37" t="s">
+    <row r="9" spans="1:5" ht="105">
+      <c r="A9" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="105">
-      <c r="A9" s="37" t="s">
+      <c r="B9" s="27" t="s">
         <v>54</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1668,19 +2103,210 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BBA02A-ABAD-410B-AE0D-5652FCB77974}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29.21875" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>7</v>
+    <row r="1" spans="1:5" ht="21">
+      <c r="A1" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="105.6" thickBot="1">
+      <c r="A2" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DE436B-D63F-44D2-8672-F1AFD2F11880}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="72.6640625" customWidth="1"/>
+    <col min="2" max="2" width="65.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21">
+      <c r="A1" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="258.60000000000002" customHeight="1"/>
+    <row r="3" spans="1:2">
+      <c r="A3" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.8">
+      <c r="A4" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.8">
+      <c r="A5" s="37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{563AD8FB-81DE-4567-B630-763C00BBC73A}">
+  <dimension ref="A2:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="48.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="B2" s="36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="57.6">
+      <c r="A3" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.8">
+      <c r="A4" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919340BC-C7B9-43B7-92CE-E24C9A8C0861}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="56.33203125" customWidth="1"/>
+    <col min="2" max="2" width="53.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="57.6">
+      <c r="A2" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.8">
+      <c r="A3" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="49"/>
+      <c r="B4" s="50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="49"/>
+      <c r="B5" s="48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28.8">
+      <c r="B6" s="50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Máy tính\tranning-java-core\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D277330E-5852-4DF4-BB3B-9ED8ABFE57CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="3084" windowWidth="17280" windowHeight="8964" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12495" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Encapsulation" sheetId="1" r:id="rId1"/>
@@ -23,14 +17,16 @@
     <sheet name="Constructor" sheetId="10" r:id="rId8"/>
     <sheet name="Final &amp; Static" sheetId="11" r:id="rId9"/>
     <sheet name="ArrayList &amp; HasSet &amp; HasMap" sheetId="12" r:id="rId10"/>
-    <sheet name="Q&amp;A" sheetId="3" r:id="rId11"/>
+    <sheet name="Compare" sheetId="13" r:id="rId11"/>
+    <sheet name="Comparator &amp; Comparable" sheetId="14" r:id="rId12"/>
+    <sheet name="Q&amp;A" sheetId="3" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="134">
   <si>
     <t xml:space="preserve">1. Khái niệm: Tính đóng gói là kỹ thuật ấn giấu thông tin không liên quan và hiện thị ra thông tin liên quan. </t>
   </si>
@@ -73,57 +69,54 @@
     <t>Khái niệm</t>
   </si>
   <si>
+    <t xml:space="preserve">Polymorphism là khả năng một đối tượng có thể
+ thực hiện một tác vụ theo nhiều cách nhau </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Đây là khả năng cho phép một lớp có nhiều thuộc tính, 
 phương thức cùng tên nhưng với các tham số khác nhau về loại cũng như về số lượng. Khi được gọi, 
 dựa vào tham số truyền vào, phương thức tương ứng sẽ được thực hiện</t>
   </si>
   <si>
-    <t xml:space="preserve">Polymorphism là khả năng một đối tượng có thể
- thực hiện một tác vụ theo nhiều cách nhau </t>
-  </si>
-  <si>
-    <t>Cách triển khai</t>
-  </si>
-  <si>
-    <t>Chúng ta sử dụng nạp chồng phương thức (method overloading) và ghi đè phương thức (method overriding) để có tính đa hình.</t>
-  </si>
-  <si>
     <t>Là hai phương thức cùng tên, cùng tham số, 
 cùng kiểu trả về nhưng thằng con viết lại và dùng theo cách của nó,và xuất hiện ở lớp cha và tiếp tục xuất hiện ở lớp con.
  Khi dùng override, lúc thực thi, nếu lớp Con không có phương thức riêng, phương thức của lớp Cha sẽ được gọi, ngược lại nếu có, phương thức của lớp Con được gọi.</t>
   </si>
   <si>
+    <t>Cách triển khai</t>
+  </si>
+  <si>
+    <t>Chúng ta sử dụng nạp chồng phương thức (method overloading) và ghi đè phương thức (method overriding) để có tính đa hình.</t>
+  </si>
+  <si>
     <t>So sánh</t>
   </si>
   <si>
     <t>Nạp chồng phương thức được sử dụng để tăng tính có thể đọc của chương trình</t>
   </si>
   <si>
+    <t>Ghi đè phương thức được sử dụng để cung cấp trình triển khai cụ thể của phương thức mà đã được cung cấp bởi lớp cha của nó</t>
+  </si>
+  <si>
     <t>Nạp chồng phương thức được thực hiện bên trong lớp (class)</t>
   </si>
   <si>
+    <t>Ghi đè phương thức xuất hiện trong hai lớp mà có mối quan hệ IS-A (kế thừa)</t>
+  </si>
+  <si>
     <t>Trong Nạp chồng phương thức, tham số phải khác nhau</t>
   </si>
   <si>
-    <t>Trong Java, Nạp chồng phương thức không thể được thực hiện bởi thay đổi kiểu trả về của phương thức. Kiểu trả về có thể là giống hoặc khác trong Nạp chồng phương thức. Nhưng bạn phải thay đổi tham số</t>
-  </si>
-  <si>
-    <t>Ghi đè phương thức được sử dụng để cung cấp trình triển khai cụ thể của phương thức mà đã được cung cấp bởi lớp cha của nó</t>
-  </si>
-  <si>
-    <t>Ghi đè phương thức xuất hiện trong hai lớp mà có mối quan hệ IS-A (kế thừa)</t>
-  </si>
-  <si>
     <t>Trong Ghi đè phương thức, tham số phải là giống nhau</t>
   </si>
   <si>
-    <t>Ghi đè phương thức là ví dụ của đa hình tại thực thi (runtime)</t>
-  </si>
-  <si>
-    <t>Kiểu trả về phải là giống.</t>
-  </si>
-  <si>
-    <r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF555555"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>Nạp chồng phương thức là ví dụ của đa hình tại biên dịch (</t>
     </r>
     <r>
@@ -132,25 +125,34 @@
         <sz val="16"/>
         <color rgb="FF555555"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>compile)</t>
     </r>
   </si>
   <si>
+    <t>Ghi đè phương thức là ví dụ của đa hình tại thực thi (runtime)</t>
+  </si>
+  <si>
+    <t>Trong Java, Nạp chồng phương thức không thể được thực hiện bởi thay đổi kiểu trả về của phương thức. Kiểu trả về có thể là giống hoặc khác trong Nạp chồng phương thức. Nhưng bạn phải thay đổi tham số</t>
+  </si>
+  <si>
+    <t>Kiểu trả về phải là giống.</t>
+  </si>
+  <si>
+    <t>Upcasting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Downcasting </t>
+  </si>
+  <si>
+    <t>Khi biến tham chiếu của lớp cha tham chiếu tới đối tượng của lớp con, thì đó là Upcasting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Downcasting là dạng chuyển kiểu chuyển 1 đối tượng là một thể hiện của lớp cha xuống thành đối tượng là thể hiện của lớp con trong quan hệ kế thừa.</t>
+  </si>
+  <si>
     <t>Triển khai</t>
-  </si>
-  <si>
-    <t>Upcasting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Downcasting </t>
-  </si>
-  <si>
-    <t>Khi biến tham chiếu của lớp cha tham chiếu tới đối tượng của lớp con, thì đó là Upcasting.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Downcasting là dạng chuyển kiểu chuyển 1 đối tượng là một thể hiện của lớp cha xuống thành đối tượng là thể hiện của lớp con trong quan hệ kế thừa.</t>
   </si>
   <si>
     <t>Lưu ý: khi thực hiện downcasting có thể sẽ gặp lỗi ClassCastException 
@@ -181,10 +183,10 @@
     <t>Chúng ta có thể truy cập một số phương thức được chỉ định của lớp con.</t>
   </si>
   <si>
+    <t>Tất cả các phương thức và biến của cả hai lớp có thể được truy cập bằng cách thực hiện downcasting.</t>
+  </si>
+  <si>
     <t>Parent p = new Parent()</t>
-  </si>
-  <si>
-    <t>Tất cả các phương thức và biến của cả hai lớp có thể được truy cập bằng cách thực hiện downcasting.</t>
   </si>
   <si>
     <t xml:space="preserve">Parent p = new Child() 
@@ -203,28 +205,13 @@
     <t>Thể hiện tính trừu tượng 100% (Java &lt; 8).</t>
   </si>
   <si>
+    <t>Default methods</t>
+  </si>
+  <si>
+    <t>Static methods</t>
+  </si>
+  <si>
     <t>Lớp trừu tượng có thể có các phương thức abstract và non-abstract</t>
-  </si>
-  <si>
-    <t>Lớp trừu tượng không hỗ trợ đa kế thừa</t>
-  </si>
-  <si>
-    <t>Lớp trừu tượng có thể có các biến final, non-final, static và non-static</t>
-  </si>
-  <si>
-    <t>Lớp trừu tượng có thể có phương thức static, phương thức main và constructor</t>
-  </si>
-  <si>
-    <t>Từ khóa abstract được sử dụng để khai báo lớp trừu tượng</t>
-  </si>
-  <si>
-    <t>Lớp trừu tượng có thể cung cấp trình triển khai của Interface</t>
-  </si>
-  <si>
-    <t>Sử dụng Abstract class khi chúng ta chỉ có thể hoàn thành một vài chức năng (method/ function) chuẩn của hệ thống, một vài chức năng còn lại các lớp extends phải hoàn thành. Những tính năng đã hoàn thành này vẫn sử dụng như bình thường, đây là những tính năng chung</t>
-  </si>
-  <si>
-    <t>Sử dụng Interface khi bạn muốn tạo dựng một bộ khung chuẩn gồm các chức năng (method/ function) mà tất cả module/ project cần phải có. Các module phải implements tất cả chức năng đã được định nghĩa.</t>
   </si>
   <si>
     <t>Phiên bản Java &lt; 8, Interface chỉ có thể có phương thức abstract.
@@ -232,31 +219,16 @@
 Phiên bản Java 9, có thể thêm private methods.</t>
   </si>
   <si>
-    <t>Interface hỗ trợ đa kế thừa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Interface chỉ có các biến static final</t>
-  </si>
-  <si>
-    <t>Interface không thể có phương thức static, main hoặc constructor.</t>
-  </si>
-  <si>
-    <t>Từ khóa interface được sử dụng để khai báo Interface</t>
-  </si>
-  <si>
-    <t>Interface không cung cấp trình triển khai cụ thể của lớp abstract</t>
-  </si>
-  <si>
-    <t>Default methods</t>
-  </si>
-  <si>
-    <t>Static methods</t>
-  </si>
-  <si>
     <t>Java 8 giới thiệu môt khái niệm mới về Default Method dành cho Interface. Nó cho phép chúng ta thêm vào các chức năng cho interface mà không làm phá vỡ các lớp implement từ interface này</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>Phương thức </t>
     </r>
     <r>
@@ -265,7 +237,7 @@
         <sz val="10"/>
         <color rgb="FF555555"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>static</t>
     </r>
@@ -274,7 +246,7 @@
         <sz val="10"/>
         <color rgb="FF555555"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t> cũng giống như phương thức </t>
     </r>
@@ -284,7 +256,7 @@
         <sz val="10"/>
         <color rgb="FF555555"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>default</t>
     </r>
@@ -293,7 +265,7 @@
         <sz val="10"/>
         <color rgb="FF555555"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>, ngoại trừ việc nó </t>
     </r>
@@ -303,7 +275,7 @@
         <sz val="10"/>
         <color rgb="FF555555"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>không thể được override</t>
     </r>
@@ -312,12 +284,48 @@
         <sz val="10"/>
         <color rgb="FF555555"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t> chúng trong class được implements.</t>
     </r>
   </si>
   <si>
+    <t>Lớp trừu tượng không hỗ trợ đa kế thừa</t>
+  </si>
+  <si>
+    <t>Interface hỗ trợ đa kế thừa</t>
+  </si>
+  <si>
+    <t>Lớp trừu tượng có thể có các biến final, non-final, static và non-static</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Interface chỉ có các biến static final</t>
+  </si>
+  <si>
+    <t>Lớp trừu tượng có thể có phương thức static, phương thức main và constructor</t>
+  </si>
+  <si>
+    <t>Interface không thể có phương thức static, main hoặc constructor.</t>
+  </si>
+  <si>
+    <t>Từ khóa abstract được sử dụng để khai báo lớp trừu tượng</t>
+  </si>
+  <si>
+    <t>Từ khóa interface được sử dụng để khai báo Interface</t>
+  </si>
+  <si>
+    <t>Lớp trừu tượng có thể cung cấp trình triển khai của Interface</t>
+  </si>
+  <si>
+    <t>Interface không cung cấp trình triển khai cụ thể của lớp abstract</t>
+  </si>
+  <si>
+    <t>Sử dụng Abstract class khi chúng ta chỉ có thể hoàn thành một vài chức năng (method/ function) chuẩn của hệ thống, một vài chức năng còn lại các lớp extends phải hoàn thành. Những tính năng đã hoàn thành này vẫn sử dụng như bình thường, đây là những tính năng chung</t>
+  </si>
+  <si>
+    <t>Sử dụng Interface khi bạn muốn tạo dựng một bộ khung chuẩn gồm các chức năng (method/ function) mà tất cả module/ project cần phải có. Các module phải implements tất cả chức năng đã được định nghĩa.</t>
+  </si>
+  <si>
     <t>Package</t>
   </si>
   <si>
@@ -336,18 +344,18 @@
     <t>Sử dụng danh từ và cách nhau bời dấu chấm</t>
   </si>
   <si>
+    <t>Sử dụng danh từ hoặc cụm danh từ viết thường chữ cái đầu tiên và viết hoa các chữ cái đầu tiên</t>
+  </si>
+  <si>
     <t>Sử dụng nên sử dụng các danh từ và cụm dụng từ, chữ cái đầu tiên viết hoa</t>
   </si>
   <si>
+    <t>Tất cả lên viết hoa và cách nhau bằng dấu gạch dưới</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sự dụng động từ hoặc cụm động từ viết thường chữ đầu tiên và viết hoa các chữ cái đầu tiên tiếp theo </t>
   </si>
   <si>
-    <t>Sử dụng danh từ hoặc cụm danh từ viết thường chữ cái đầu tiên và viết hoa các chữ cái đầu tiên</t>
-  </si>
-  <si>
-    <t>Tất cả lên viết hoa và cách nhau bằng dấu gạch dưới</t>
-  </si>
-  <si>
     <t>Primitive</t>
   </si>
   <si>
@@ -357,83 +365,411 @@
     <t>Cần sử dụng các biến có giá trị Null.</t>
   </si>
   <si>
+    <t>Khi không gán giá trị thì mặc định giá trị sẽ là 0</t>
+  </si>
+  <si>
     <t>Với wrapper chúng ta có thể nhận được NullPointerException khi một cái gì đó đang được thiết lập không chính xác. Đôi khi nó giúp chúng ta dễ dàng phát hiện lỗi hơn</t>
   </si>
   <si>
+    <t>Hiệu năng tốt hơn</t>
+  </si>
+  <si>
     <t>Với kiểu dữ liệu nguyên thủy, các giá trị có thể được khởi tạo với giá trị mặc định 0, false, … điều này có thể không chính xác hoặc gây nhầm lẫn cho lập trình viên.</t>
   </si>
   <si>
-    <t>Khi không gán giá trị thì mặc định giá trị sẽ là 0</t>
-  </si>
-  <si>
-    <t>Hiệu năng tốt hơn</t>
-  </si>
-  <si>
     <t>Constructor</t>
+  </si>
+  <si>
+    <t>Là  phương thức được sử dụng để khởi tạo các đối tượng.
+Có 2 kiểu constructor là mặc định và tham số
+Nếu không có constructor trong một lớp, trình biên dịch sẽ tự động tạo một constructor mặc định trong lớp đó</t>
   </si>
   <si>
     <t>Tên constructor phải giống tên lớp chứa nó.
 Constructor không có kiểu trả về</t>
   </si>
   <si>
-    <t>Là  phương thức được sử dụng để khởi tạo các đối tượng.
-Có 2 kiểu constructor là mặc định và tham số
-Nếu không có constructor trong một lớp, trình biên dịch sẽ tự động tạo một constructor mặc định tron lớp đó</t>
-  </si>
-  <si>
     <t xml:space="preserve">Static </t>
   </si>
   <si>
     <t>Final</t>
   </si>
   <si>
+    <t>Biến static có thể được sử dụng để tham chiếu thuộc tính chung của tất cả đối tượng (mà không là duy nhất cho mỗi đối tượng), ví dụ như tên công ty của nhân viên, tên trường học của các sinh viên, ..</t>
+  </si>
+  <si>
     <t>Biến final: bạn không thể thay đổi giá trị của biến final (nó sẽ là hằng số)</t>
   </si>
   <si>
+    <t>Khối static luôn được thực thi trước khi phương thức main tại lúc tải lớp</t>
+  </si>
+  <si>
     <t>Lớp final: bạn không thể kế thừa lớp final.</t>
   </si>
   <si>
+    <t>Phương thức final có được thừa kế, nhưng không thể ghi đè được</t>
+  </si>
+  <si>
     <t>Biến static final trống: Một biến final mà không được khởi tạo tại thời điểm khai báo được gọi là biến final trống.</t>
   </si>
   <si>
-    <t>Phương thức final có được thừa kế, nhưng không thể ghi đè được</t>
-  </si>
-  <si>
-    <t>Biến static có thể được sử dụng để tham chiếu thuộc tính chung của tất cả đối tượng (mà không là duy nhất cho mỗi đối tượng), ví dụ như tên công ty của nhân viên, tên trường học của các sinh viên, ..</t>
-  </si>
-  <si>
-    <t>Khối static luôn được thực thi trước khi phương thức main tại lúc tải lớp</t>
-  </si>
-  <si>
     <t>ArrayList</t>
   </si>
   <si>
+    <t>HasSet</t>
+  </si>
+  <si>
+    <t>HashMap</t>
+  </si>
+  <si>
     <t>Là một lớp kế thừa lớp AbstractList và triển khai của List Interface trong Collections Framework nên nó sẽ có một vài đặc điểm và phương thức tương đồng với List. ArrayList được sử dụng như một mảng động để lưu trữ các phần tử.</t>
   </si>
   <si>
+    <t>Lớp HashSet trong Java kế thừa AbstractSet và triển khai Set Interface. Nó tạo một collection mà sử dụng một hash table để lưu giữ.</t>
+  </si>
+  <si>
+    <t>Lưu trữ dữ liệu ở dạng các cặp key-value (khóa-giá trị). Mỗi cặp key-value được lưu trữ trong một đối tượng của lớp Entry&lt;K, V&gt;.</t>
+  </si>
+  <si>
     <t>Đặc điểm</t>
   </si>
   <si>
     <t>Lớp ArrayList trong java có thể chứa các phần tử trùng lặp.</t>
   </si>
   <si>
+    <r>
+      <t>HashSet chỉ chứa các phần tử</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF555555"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF555555"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>duy nhất</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF555555"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, không chấp nhận 2 phần tử trùng nhau.</t>
+    </r>
+  </si>
+  <si>
+    <t>HashMap lưu trữ dữ liệu dưới dạng cặp key và value.</t>
+  </si>
+  <si>
     <t>Lớp ArrayList duy trì thứ tự của phần tử được thêm vào.</t>
   </si>
   <si>
+    <r>
+      <t>HashSet lưu trữ các phần tử bằng cách sử dụng một cơ chế được gọi là</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF555555"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF555555"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hashing (băm).</t>
+    </r>
+  </si>
+  <si>
+    <t>HashMap chỉ chứa các key duy nhất.</t>
+  </si>
+  <si>
     <t>Lớp ArrayList là không đồng bộ (non-synchronized).</t>
   </si>
   <si>
+    <r>
+      <t>HashSet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF555555"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF555555"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>không đảm bảo thứ tự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF555555"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF555555"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>được thêm vào.</t>
+    </r>
+  </si>
+  <si>
+    <t>HashMap có thể có 1 key là null và nhiều giá trị null.</t>
+  </si>
+  <si>
     <t>Lớp ArrayList cho phép truy cập ngẫu nhiên vì nó lưu dữ liệu theo chỉ mục.</t>
   </si>
   <si>
+    <r>
+      <t>HashSet cho phép chứa phần tử</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF555555"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF555555"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF555555"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>HashMap duy trì các phần tử</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF555555"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF555555"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>KHÔNG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF555555"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF555555"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>theo thứ tự chèn.</t>
+    </r>
+  </si>
+  <si>
     <t>Lớp ArrayList trong java, thao tác chậm vì cần nhiều sự dịch chuyển nếu bất kỳ phần tử nào bị xoá khỏi danh sách.</t>
+  </si>
+  <si>
+    <t>So sánh ==</t>
+  </si>
+  <si>
+    <t>Equals</t>
+  </si>
+  <si>
+    <t>CompareTo</t>
+  </si>
+  <si>
+    <t>So sánh địa chỉ ô nhớ</t>
+  </si>
+  <si>
+    <t>So sánh nội dung</t>
+  </si>
+  <si>
+    <t>Dùng để so sánh hai chuỗi với nhau</t>
+  </si>
+  <si>
+    <t>Nếu một lớp không ghi đè phương, thì sẽ mặc định, nó sử dụng phương thức bằng (Object o) của lớp cha gần nhất đã ghi đè phương thức  này</t>
+  </si>
+  <si>
+    <t>trả về 0 nếu các chuỗi bằng nhau.</t>
+  </si>
+  <si>
+    <t>trả về một số nguyên âm nếu chuỗi đứng trước str theo thứ tự từ điển.</t>
+  </si>
+  <si>
+    <t>trả về một số nguyên dương nếu chuỗi đứng sau str theo thứ tự từ điển.</t>
+  </si>
+  <si>
+    <t>Comparator</t>
+  </si>
+  <si>
+    <t>Comparable</t>
+  </si>
+  <si>
+    <t>Được sử dụng để sắp xếp các đối tượng của lớp do người dùng định nghĩa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bạn phải implements giao tiếp Comparable cho lớp đối tượng cần được so sánh.
+</t>
+  </si>
+  <si>
+    <t>Bạn KHÔNG phải implements giao tiếp Comparator cho lớp đối tượng cần được so sánh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comparable cung cấp phương thức compareTo() để sắp xếp các phần tử.</t>
+  </si>
+  <si>
+    <r>
+      <t>Chúng ta có thể sắp xếp các phần tử của kiểu Comparable bởi </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>phương thức Collections.sort(List)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> .</t>
+    </r>
+  </si>
+  <si>
+    <t>Comparable thuộc về java.lang package.</t>
+  </si>
+  <si>
+    <r>
+      <t>Comparator thuộc về </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>java.util</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> package.</t>
+    </r>
+  </si>
+  <si>
+    <t>Chúng ta có thể sắp xếp các phần tử của kiểu Comparable bởi phương thức Collections.sort(List) .</t>
+  </si>
+  <si>
+    <r>
+      <t>Chúng ta có thể sắp xếp các phần tử của kiểu Comparator bởi </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>phương thức Collections.sort(List,Comparator)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,25 +778,67 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13.1"/>
+      <color rgb="FF414141"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF555555"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF555555"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF555555"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF252525"/>
+      <name val="Roboto"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="18"/>
@@ -477,57 +855,179 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF555555"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF555555"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF555555"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color rgb="FF555555"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF333333"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF252525"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF333333"/>
-      <name val="Open Sans"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -540,8 +1040,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -550,59 +1236,27 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -610,34 +1264,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -645,48 +1273,42 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,12 +1328,104 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -719,8 +1433,8 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -728,22 +1442,53 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,80 +1497,335 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -837,118 +1837,129 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -964,27 +1975,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" r:link="rId2"/>
+        <a:blip r:embed="rId1" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12091670" y="114300"/>
-          <a:ext cx="4886325" cy="3057525"/>
+          <a:off x="12089130" y="114300"/>
+          <a:ext cx="4866005" cy="3057525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1001,7 +2006,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1017,19 +2022,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" r:link="rId2"/>
+        <a:blip r:embed="rId1" r:link="rId2"/>
         <a:srcRect t="-10417" r="-3093"/>
         <a:stretch>
           <a:fillRect/>
@@ -1055,7 +2054,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1071,19 +2070,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5" descr="Overriding Vs Overloading">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFDA83DF-F2BB-4072-AA43-6B26C9E72241}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="Overriding Vs Overloading"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1095,10 +2088,10 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="6568440" y="1135380"/>
-          <a:ext cx="4411980" cy="2621279"/>
+          <a:off x="6465570" y="1905000"/>
+          <a:ext cx="4271645" cy="2620645"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1121,7 +2114,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1137,19 +2130,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Upcasting vs Downcasting in Java - Simple Snippets">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF93BF02-A967-4EB8-806B-F36F1CB7A4C1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Upcasting vs Downcasting in Java - Simple Snippets"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1161,9 +2148,9 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="7208520" y="1135380"/>
+          <a:off x="7039610" y="1135380"/>
           <a:ext cx="4061460" cy="2270760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1187,7 +2174,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1196,26 +2183,20 @@
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4945380</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>3147060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{950F6EF8-FCC1-4221-AB8D-F61E1DA211FD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1227,10 +2208,10 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="289560"/>
-          <a:ext cx="4945380" cy="3040380"/>
+          <a:off x="0" y="373380"/>
+          <a:ext cx="4845050" cy="3040380"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1257,26 +2238,20 @@
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>4457700</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>3124200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C614ABFB-BD5A-4F19-A151-5BB705234E14}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1288,10 +2263,10 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="5036820" y="388620"/>
-          <a:ext cx="4404360" cy="3002280"/>
+          <a:off x="4898390" y="388620"/>
+          <a:ext cx="4302760" cy="3002280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1565,455 +2540,664 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.1047619047619" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="179.109375" customWidth="1"/>
-    <col min="12" max="12" width="26.88671875" customWidth="1"/>
-    <col min="13" max="13" width="29.33203125" customWidth="1"/>
-    <col min="14" max="14" width="37.109375" customWidth="1"/>
+    <col min="1" max="1" width="179.104761904762" customWidth="1"/>
+    <col min="12" max="12" width="26.8857142857143" customWidth="1"/>
+    <col min="13" max="13" width="29.3333333333333" customWidth="1"/>
+    <col min="14" max="14" width="37.1047619047619" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.4">
-      <c r="A1" s="3"/>
-    </row>
-    <row r="4" spans="1:14" ht="23.4">
-      <c r="A4" s="3" t="s">
+    <row r="1" ht="23.25" spans="1:1">
+      <c r="A1" s="57"/>
+    </row>
+    <row r="4" ht="23.25" spans="1:1">
+      <c r="A4" s="57" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="46.8">
-      <c r="A5" s="1" t="s">
+    <row r="5" ht="46.5" spans="1:1">
+      <c r="A5" s="56" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="46.8">
-      <c r="A6" s="1" t="s">
+    <row r="6" ht="46.5" spans="1:1">
+      <c r="A6" s="56" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="28.8">
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="1:14" ht="23.4">
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" ht="23.4">
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="1:14" ht="23.4">
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
+    <row r="13" ht="28.5" spans="12:14">
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+    </row>
+    <row r="14" ht="23.25" spans="12:14">
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+    </row>
+    <row r="15" ht="23.25" spans="12:14">
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+    </row>
+    <row r="16" ht="23.25" spans="12:14">
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20624A7D-1469-4982-BA44-0335395FB1E1}">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="59.44140625" customWidth="1"/>
+    <col min="2" max="2" width="59.4380952380952" customWidth="1"/>
+    <col min="3" max="3" width="51.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="53.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="57.6">
-      <c r="A2" t="s">
+      <c r="C1" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" ht="60" spans="1:4">
+      <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="49" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="51" t="s">
+      <c r="B2" s="15" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="B4" s="51" t="s">
+      <c r="C2" s="16" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="51" t="s">
+      <c r="D2" s="16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="51" t="s">
+    <row r="3" ht="31.5" spans="1:4">
+      <c r="A3" s="15" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="26.4">
-      <c r="B7" s="51" t="s">
+      <c r="B3" s="15" t="s">
         <v>100</v>
       </c>
+      <c r="C3" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" ht="31.5" spans="1:4">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" spans="1:4">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" ht="30" spans="1:4">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" ht="30" spans="1:4">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="21.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="45.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="35.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4">
+      <c r="B1" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4">
+      <c r="B2" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" ht="45" spans="2:4">
+      <c r="B3" s="11"/>
+      <c r="C3" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" ht="49.5" spans="2:4">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" ht="49.5" spans="2:4">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="14.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="49.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="46.1428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21" spans="1:3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" ht="21" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" ht="84" spans="1:3">
+      <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" ht="81.75" spans="1:3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" ht="42.75" spans="1:3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" ht="101.25" spans="1:3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:A6"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.1047619047619" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.1047619047619" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="199.5546875" customWidth="1"/>
+    <col min="1" max="1" width="199.552380952381" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="147" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="147" customHeight="1" spans="1:1">
+      <c r="A1" s="56" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="23.4">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="23.25" spans="1:1">
+      <c r="A2" s="57" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="232.05" customHeight="1">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="232.05" customHeight="1" spans="1:1">
+      <c r="A3" s="56" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="23.4">
-      <c r="A4" s="2" t="s">
+    <row r="4" ht="23.25" spans="1:1">
+      <c r="A4" s="57" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06415C6-62E0-4456-AD98-5BB7C74CDC3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="A1:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.44140625" customWidth="1"/>
-    <col min="4" max="4" width="81" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1047619047619" customWidth="1"/>
+    <col min="2" max="2" width="40.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="73.4380952380952" customWidth="1"/>
+    <col min="4" max="4" width="81" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21">
-      <c r="A1" s="18"/>
-      <c r="B1" s="19" t="s">
+    <row r="1" ht="21" spans="1:4">
+      <c r="A1" s="36"/>
+      <c r="B1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="38" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="126">
-      <c r="A2" s="12" t="s">
+    <row r="2" ht="126" spans="1:4">
+      <c r="A2" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" s="35" customFormat="1" ht="210.6" customHeight="1" spans="1:4">
+      <c r="A3" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" ht="210.6" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="39"/>
-    </row>
-    <row r="4" spans="1:4" ht="63">
-      <c r="A4" s="43" t="s">
+      <c r="C3" s="42"/>
+      <c r="D3" s="43"/>
+    </row>
+    <row r="4" ht="40.5" spans="1:4">
+      <c r="A4" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" ht="42" spans="1:4">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" ht="21" spans="1:4">
+      <c r="A6" s="48"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="50" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="42">
-      <c r="A5" s="44"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="D6" s="51" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="21">
-      <c r="A6" s="44"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="13" t="s">
+    <row r="7" ht="40.5" spans="1:4">
+      <c r="A7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="50" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="42">
-      <c r="A7" s="44"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="14" t="s">
+      <c r="D7" s="51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" ht="81" spans="1:4">
+      <c r="A8" s="52"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="84">
-      <c r="A8" s="45"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:A8"/>
     <mergeCell ref="B4:B8"/>
-    <mergeCell ref="A4:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEAEEA8C-6DFA-44B4-910F-FC909E6A4C61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.88671875" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="75.1047619047619" customWidth="1"/>
+    <col min="3" max="3" width="80.8857142857143" customWidth="1"/>
+    <col min="4" max="4" width="8.88571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23" t="s">
+    <row r="1" ht="21" spans="1:3">
+      <c r="A1" s="30"/>
+      <c r="B1" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="23" t="s">
+    </row>
+    <row r="2" ht="63" spans="1:3">
+      <c r="A2" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="63">
-      <c r="A2" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="23" t="s">
+      <c r="C2" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="23" t="s">
+    </row>
+    <row r="3" ht="199.8" customHeight="1" spans="1:3">
+      <c r="A3" s="30" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="199.8" customHeight="1">
-      <c r="A3" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="47"/>
-    </row>
-    <row r="4" spans="1:3" ht="21">
-      <c r="A4" s="46" t="s">
+      <c r="C3" s="30"/>
+    </row>
+    <row r="4" ht="21" spans="1:3">
+      <c r="A4" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24.6">
-      <c r="A5" s="46"/>
-      <c r="B5" s="23" t="s">
+    <row r="5" ht="25.5" spans="1:3">
+      <c r="A5" s="31"/>
+      <c r="B5" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="42">
-      <c r="A6" s="46"/>
-      <c r="B6" s="23" t="s">
+    <row r="6" ht="42" spans="1:3">
+      <c r="A6" s="31"/>
+      <c r="B6" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="42.6" thickBot="1">
-      <c r="A7" s="46"/>
-      <c r="B7" s="25" t="s">
+    <row r="7" ht="42.75" spans="1:3">
+      <c r="A7" s="31"/>
+      <c r="B7" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" ht="42.75" spans="1:3">
+      <c r="A8" s="31"/>
+      <c r="B8" s="34" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="42.6" thickBot="1">
-      <c r="A8" s="46"/>
-      <c r="B8" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="30" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.1047619047619" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="84.6640625" customWidth="1"/>
-    <col min="2" max="2" width="78.77734375" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.109375" customWidth="1"/>
+    <col min="1" max="1" width="84.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="78.7809523809524" customWidth="1"/>
+    <col min="3" max="3" width="14.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="63.1047619047619" customWidth="1"/>
     <col min="5" max="5" width="69" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21">
+    <row r="1" ht="21" spans="1:2">
       <c r="A1" s="27" t="s">
         <v>43</v>
       </c>
@@ -2021,292 +3205,301 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="21">
+    <row r="2" ht="21" spans="1:5">
       <c r="A2" s="27" t="s">
         <v>45</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="84">
+      <c r="D2" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" ht="84" spans="1:5">
       <c r="A3" s="28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B3" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" ht="21" spans="1:2">
+      <c r="A4" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" ht="42" spans="1:2">
+      <c r="A5" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="21">
-      <c r="A4" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="27" t="s">
+      <c r="B5" s="27" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="42">
-      <c r="A5" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="27" t="s">
+    <row r="6" ht="42" spans="1:2">
+      <c r="A6" s="27" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="42">
-      <c r="A6" s="27" t="s">
-        <v>50</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="21">
+    <row r="7" ht="21" spans="1:2">
       <c r="A7" s="27" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="42">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" ht="42" spans="1:2">
       <c r="A8" s="27" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="105">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" ht="105" spans="1:2">
       <c r="A9" s="27" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BBA02A-ABAD-410B-AE0D-5652FCB77974}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.33203125" customWidth="1"/>
-    <col min="3" max="3" width="29.21875" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.5546875" customWidth="1"/>
+    <col min="1" max="1" width="37.2190476190476" customWidth="1"/>
+    <col min="2" max="2" width="40.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="29.2190476190476" customWidth="1"/>
+    <col min="4" max="4" width="26.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="31.552380952381" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="29" t="s">
+    <row r="1" ht="21" spans="1:5">
+      <c r="A1" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="105.6" thickBot="1">
-      <c r="A2" s="32" t="s">
+    <row r="2" ht="105.75" spans="1:5">
+      <c r="A2" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="33" t="s">
+      <c r="E2" s="26" t="s">
         <v>74</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DE436B-D63F-44D2-8672-F1AFD2F11880}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="72.6640625" customWidth="1"/>
-    <col min="2" max="2" width="65.33203125" customWidth="1"/>
+    <col min="1" max="1" width="72.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="65.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21">
-      <c r="A1" s="35" t="s">
+    <row r="1" ht="21" spans="1:2">
+      <c r="A1" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="258.60000000000002" customHeight="1"/>
+    <row r="2" ht="258.6" customHeight="1"/>
     <row r="3" spans="1:2">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" ht="45" spans="1:2">
+      <c r="A4" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="28.8">
-      <c r="A4" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="36" t="s">
+    <row r="5" ht="30" spans="1:1">
+      <c r="A5" s="18" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="28.8">
-      <c r="A5" s="37" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{563AD8FB-81DE-4567-B630-763C00BBC73A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="48.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="48.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
-      <c r="B2" s="36" t="s">
+    <row r="2" spans="2:2">
+      <c r="B2" s="19" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="57.6">
-      <c r="A3" s="36" t="s">
+    <row r="3" ht="90" spans="1:2">
+      <c r="A3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" ht="30" spans="1:2">
+      <c r="A4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="28.8">
-      <c r="A4" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919340BC-C7B9-43B7-92CE-E24C9A8C0861}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="56.33203125" customWidth="1"/>
-    <col min="2" max="2" width="53.6640625" customWidth="1"/>
+    <col min="1" max="1" width="56.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="53.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="57.6">
-      <c r="A2" s="50" t="s">
+    <row r="2" ht="60" spans="1:2">
+      <c r="A2" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" ht="30" spans="1:2">
+      <c r="A3" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="15"/>
+      <c r="B4" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="15"/>
+      <c r="B5" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="49" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="28.8">
-      <c r="A3" s="50" t="s">
+    </row>
+    <row r="6" ht="30" spans="2:2">
+      <c r="B6" s="18" t="s">
         <v>92</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="49"/>
-      <c r="B5" s="48" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="28.8">
-      <c r="B6" s="50" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>